--- a/32 LLM for CJM/03 content names and id.xlsx
+++ b/32 LLM for CJM/03 content names and id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25ABC45-DD29-421E-912D-5067396FD2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7290F1E-8852-45FC-AF17-4F998A7D55C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3310" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Content_name</t>
   </si>
@@ -39,10 +39,28 @@
     <t>SMS бонусные баллы</t>
   </si>
   <si>
-    <t>Email - домрф</t>
-  </si>
-  <si>
     <t>SMS Вклад</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>PUSH Кешбэк по категориям</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EMAIL Детская карта</t>
+  </si>
+  <si>
+    <t>Variant</t>
   </si>
 </sst>
 </file>
@@ -58,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,9 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -363,60 +390,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="29.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/32 LLM for CJM/03 content names and id.xlsx
+++ b/32 LLM for CJM/03 content names and id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7290F1E-8852-45FC-AF17-4F998A7D55C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F76172-9402-4B32-9884-3C44662EA480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/32 LLM for CJM/03 content names and id.xlsx
+++ b/32 LLM for CJM/03 content names and id.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F76172-9402-4B32-9884-3C44662EA480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CE5339-D1AF-4D67-9CEE-445E2DCBFFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1590" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Content_name</t>
   </si>
@@ -37,12 +36,6 @@
     <t>Sms Simple</t>
   </si>
   <si>
-    <t>SMS бонусные баллы</t>
-  </si>
-  <si>
-    <t>SMS Вклад</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -62,6 +55,9 @@
   </si>
   <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <t>Брокерский счет</t>
   </si>
 </sst>
 </file>
@@ -391,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,10 +410,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -428,65 +424,51 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>48</v>
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
         <v>14</v>
       </c>
     </row>
